--- a/xlsxmaps/level_0016.xlsx
+++ b/xlsxmaps/level_0016.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\接收文件\厨房\编辑关卡\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7BEA25-5396-46D3-A034-8365F2884F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80488DE9-B38A-46C4-9415-069C7F5128E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="层" sheetId="9" r:id="rId1"/>
@@ -2151,8 +2151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98328020-202E-4617-B88F-D8CF9F0B37E4}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -2164,28 +2164,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
       <c r="A1" s="5">
-        <v>10000000</v>
-      </c>
-      <c r="B1" s="5">
-        <v>10000000</v>
-      </c>
-      <c r="C1" s="5">
-        <v>10000000</v>
+        <v>0</v>
+      </c>
+      <c r="B1" s="6">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7">
+        <v>0</v>
       </c>
       <c r="D1" s="5">
-        <v>12000023</v>
+        <v>0</v>
       </c>
       <c r="E1" s="5">
-        <v>12000023</v>
+        <v>0</v>
       </c>
       <c r="F1" s="5">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="G1" s="5">
-        <v>10000000</v>
-      </c>
-      <c r="H1" s="5">
-        <v>10000000</v>
+        <v>0</v>
+      </c>
+      <c r="H1" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="20.25" customHeight="1">
@@ -2358,8 +2358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F8A62C-F880-45BD-8951-FEAEAEB25165}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -2371,28 +2371,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
       <c r="A1" s="5">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7">
-        <v>0</v>
+        <v>10000000</v>
+      </c>
+      <c r="B1" s="5">
+        <v>10000000</v>
+      </c>
+      <c r="C1" s="5">
+        <v>10000000</v>
       </c>
       <c r="D1" s="5">
-        <v>0</v>
+        <v>12000023</v>
       </c>
       <c r="E1" s="5">
-        <v>0</v>
+        <v>12000023</v>
       </c>
       <c r="F1" s="5">
-        <v>0</v>
+        <v>30000000</v>
       </c>
       <c r="G1" s="5">
-        <v>0</v>
-      </c>
-      <c r="H1" s="3">
-        <v>0</v>
+        <v>30000000</v>
+      </c>
+      <c r="H1" s="5">
+        <v>30000000</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="20.25" customHeight="1">
